--- a/data/trans_bre/P2404-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2404-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2404-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2404-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-13,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,21%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,43; 2,82</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; -1,31</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-73,02; 226,27</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -19,79</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,9%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; -0,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 1,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; -0,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,23; 13,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,02; 169,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,14; -2,51</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,97%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-5,64; -1,29</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 0,58</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; -0,99</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -13,54</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -35,75</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,62%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 0,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; -3,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; -0,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,23; 118,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,59; -71,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,91; 1,85</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; -0,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,7%</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 1,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; -0,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,06%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,1; -0,31</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; -0,95</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 0,3</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,35; -31,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,67; 28,83</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,17%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; -0,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; -0,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; -0,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,75; -15,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -37,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -41,27</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,97%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,93%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; -0,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; -1,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; -1,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,44; -30,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,96; -65,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,95; -56,14</t>
         </is>
       </c>
     </row>
